--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/59.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/59.xlsx
@@ -479,13 +479,13 @@
         <v>-0.03703606360569824</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.532206471849297</v>
+        <v>-1.543939515907899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2217466877198305</v>
+        <v>0.1180156484632581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1139962712034884</v>
+        <v>0.09726248751622865</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04629062709802075</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.428753556421322</v>
+        <v>-1.379485383994967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.195832378006159</v>
+        <v>0.07022165431260351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08959944413356605</v>
+        <v>0.0778072377693191</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06631941805496236</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.407115400572331</v>
+        <v>-1.324945057238802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1846195962848227</v>
+        <v>0.04832123257261099</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1313680319186266</v>
+        <v>0.1202101430581976</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09883553406663879</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.480443723855043</v>
+        <v>-1.378131970013263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2102021091503433</v>
+        <v>0.09000077193886627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08750863605367371</v>
+        <v>0.0838991254886787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1425947805548685</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.482862059338349</v>
+        <v>-1.401132078733432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3155549274863889</v>
+        <v>0.1727060157059029</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1028505807565944</v>
+        <v>0.1021272148339712</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1907994826634545</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.431553702248272</v>
+        <v>-1.310061162964119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3704752348241677</v>
+        <v>0.252921563270454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03640521231098418</v>
+        <v>0.03998483676281853</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2333317354427386</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.168901121537549</v>
+        <v>-1.050263620941254</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4023448100256072</v>
+        <v>0.3353114780476119</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01677377149467899</v>
+        <v>-0.008841143172893751</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2588327496705362</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6002531670643552</v>
+        <v>-0.4901917611038146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3365258301150173</v>
+        <v>0.3029387182878552</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01657798695744286</v>
+        <v>-0.0569218000416199</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2565429564823696</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01490001916952441</v>
+        <v>0.1763557810355633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2866727437596613</v>
+        <v>0.3706112471350825</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05464679591734965</v>
+        <v>-0.08386016657155138</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2181189083884513</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8154294462908249</v>
+        <v>1.024966474946267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09139992997132632</v>
+        <v>0.1775219493695056</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00581891021342257</v>
+        <v>-0.01304532639771811</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1391752515991339</v>
       </c>
       <c r="E12" t="n">
-        <v>1.615189763438746</v>
+        <v>1.985775126948159</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2935466257927964</v>
+        <v>-0.1848117973041829</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1136345882421768</v>
+        <v>0.1260446442519695</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02069078388775255</v>
       </c>
       <c r="E13" t="n">
-        <v>2.369443898894495</v>
+        <v>2.891876333928458</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6560987240687608</v>
+        <v>-0.5256982933007027</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2315121276752437</v>
+        <v>0.2499006261585209</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1308539664100829</v>
       </c>
       <c r="E14" t="n">
-        <v>3.077173895048578</v>
+        <v>3.725935540333306</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.200899390001782</v>
+        <v>-1.085926902752066</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4034390077196933</v>
+        <v>0.4451527026438464</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3038447448120021</v>
       </c>
       <c r="E15" t="n">
-        <v>3.800109213673991</v>
+        <v>4.654450722263419</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.782009853662969</v>
+        <v>-1.707217110835385</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5528756727297349</v>
+        <v>0.6631694584681165</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.485772024683887</v>
       </c>
       <c r="E16" t="n">
-        <v>4.420497349076399</v>
+        <v>5.444962812189809</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.290002416674922</v>
+        <v>-2.280685268416918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7300192043224106</v>
+        <v>0.8543283572917858</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6684585627537579</v>
       </c>
       <c r="E17" t="n">
-        <v>5.031683001308032</v>
+        <v>6.141449530588719</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.826852156665855</v>
+        <v>-2.800841479485257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9470417894435813</v>
+        <v>1.102769786234279</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8495180821937728</v>
       </c>
       <c r="E18" t="n">
-        <v>5.395789787389027</v>
+        <v>6.615323740864063</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.350406845745034</v>
+        <v>-3.33812090859296</v>
       </c>
       <c r="G18" t="n">
-        <v>1.141660158345766</v>
+        <v>1.340059425523111</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.028479948108148</v>
       </c>
       <c r="E19" t="n">
-        <v>5.716479980016389</v>
+        <v>6.998777210811506</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.846805121652345</v>
+        <v>-3.797939496872644</v>
       </c>
       <c r="G19" t="n">
-        <v>1.369069082671279</v>
+        <v>1.564356534555856</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.203586925060353</v>
       </c>
       <c r="E20" t="n">
-        <v>6.073575117997488</v>
+        <v>7.358662125968051</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.344312233349983</v>
+        <v>-4.25299003026185</v>
       </c>
       <c r="G20" t="n">
-        <v>1.538986884006521</v>
+        <v>1.722574227549039</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.37053049167986</v>
       </c>
       <c r="E21" t="n">
-        <v>6.282625429952885</v>
+        <v>7.608747901055057</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.659501246433416</v>
+        <v>-4.600538689810489</v>
       </c>
       <c r="G21" t="n">
-        <v>1.686786521920171</v>
+        <v>1.892547531665865</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.523135480685082</v>
       </c>
       <c r="E22" t="n">
-        <v>6.414635441386881</v>
+        <v>7.752422035511183</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.93899617671186</v>
+        <v>-4.852969609899592</v>
       </c>
       <c r="G22" t="n">
-        <v>1.882209986115662</v>
+        <v>2.05757132949088</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.655096604290874</v>
       </c>
       <c r="E23" t="n">
-        <v>6.484242028700077</v>
+        <v>7.820711194162603</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.206986478225144</v>
+        <v>-5.087620732340811</v>
       </c>
       <c r="G23" t="n">
-        <v>1.986389317069645</v>
+        <v>2.174829189516371</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.762063515386682</v>
       </c>
       <c r="E24" t="n">
-        <v>6.572590258568386</v>
+        <v>7.839839526426776</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.328552512950845</v>
+        <v>-5.19036217529936</v>
       </c>
       <c r="G24" t="n">
-        <v>2.084667055555412</v>
+        <v>2.311020817110152</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.842080257586802</v>
       </c>
       <c r="E25" t="n">
-        <v>6.578718741528351</v>
+        <v>7.832371657660672</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.361331479881316</v>
+        <v>-5.224316764334263</v>
       </c>
       <c r="G25" t="n">
-        <v>2.145215100977546</v>
+        <v>2.340281151656463</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.894754562017113</v>
       </c>
       <c r="E26" t="n">
-        <v>6.626526763854571</v>
+        <v>7.769047253317982</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.359616687898638</v>
+        <v>-5.232124053956976</v>
       </c>
       <c r="G26" t="n">
-        <v>2.175859955460075</v>
+        <v>2.368077676578579</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.920506315608581</v>
       </c>
       <c r="E27" t="n">
-        <v>6.508701067679027</v>
+        <v>7.584737763694193</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.345488180382108</v>
+        <v>-5.224014243678596</v>
       </c>
       <c r="G27" t="n">
-        <v>2.183568132972817</v>
+        <v>2.37203118240526</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.91964761223119</v>
       </c>
       <c r="E28" t="n">
-        <v>6.409652389457849</v>
+        <v>7.404559876734696</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.276211255194695</v>
+        <v>-5.197302767640415</v>
       </c>
       <c r="G28" t="n">
-        <v>2.141137171332808</v>
+        <v>2.305766960400644</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.892069426574753</v>
       </c>
       <c r="E29" t="n">
-        <v>6.304672842575974</v>
+        <v>7.162861730794329</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.112761052715689</v>
+        <v>-5.01761952634976</v>
       </c>
       <c r="G29" t="n">
-        <v>2.054301544742834</v>
+        <v>2.209477563321075</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.838035393871256</v>
       </c>
       <c r="E30" t="n">
-        <v>6.13326439510676</v>
+        <v>6.901431431119809</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.918370794146609</v>
+        <v>-4.925814876006319</v>
       </c>
       <c r="G30" t="n">
-        <v>2.000699275987508</v>
+        <v>2.168088346196952</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.758763216280242</v>
       </c>
       <c r="E31" t="n">
-        <v>5.963729623956517</v>
+        <v>6.65632382859642</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.783877185716895</v>
+        <v>-4.874137211946471</v>
       </c>
       <c r="G31" t="n">
-        <v>1.900067243689492</v>
+        <v>2.095959736885403</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.657002884709155</v>
       </c>
       <c r="E32" t="n">
-        <v>5.768601361368571</v>
+        <v>6.325378429710217</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.536460423511338</v>
+        <v>-4.639477245655439</v>
       </c>
       <c r="G32" t="n">
-        <v>1.832168434271191</v>
+        <v>1.997195891620267</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.537173444117411</v>
       </c>
       <c r="E33" t="n">
-        <v>5.502674726465064</v>
+        <v>5.980369479859557</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.380517124721749</v>
+        <v>-4.492848655441145</v>
       </c>
       <c r="G33" t="n">
-        <v>1.734888526012583</v>
+        <v>1.910209614623135</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.405039677370582</v>
       </c>
       <c r="E34" t="n">
-        <v>5.285773515558566</v>
+        <v>5.689232383703346</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.155916580152321</v>
+        <v>-4.296648457263815</v>
       </c>
       <c r="G34" t="n">
-        <v>1.588361182630629</v>
+        <v>1.727975075141644</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.267547991297156</v>
       </c>
       <c r="E35" t="n">
-        <v>5.020899603743127</v>
+        <v>5.35282209555348</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.023581785957957</v>
+        <v>-4.221726106292421</v>
       </c>
       <c r="G35" t="n">
-        <v>1.520905785544324</v>
+        <v>1.672865082473396</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.131062742154056</v>
       </c>
       <c r="E36" t="n">
-        <v>4.707671180675101</v>
+        <v>4.959201247924646</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.858983102844635</v>
+        <v>-4.114763707290438</v>
       </c>
       <c r="G36" t="n">
-        <v>1.473664379526804</v>
+        <v>1.608326935983977</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.00079428512081</v>
       </c>
       <c r="E37" t="n">
-        <v>4.385440328418274</v>
+        <v>4.601526685300636</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.718387543004395</v>
+        <v>-3.957659729452997</v>
       </c>
       <c r="G37" t="n">
-        <v>1.374221692548447</v>
+        <v>1.49309767212935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8801166352312983</v>
       </c>
       <c r="E38" t="n">
-        <v>4.102141932799629</v>
+        <v>4.259923532508938</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.615466783366883</v>
+        <v>-3.809029684537954</v>
       </c>
       <c r="G38" t="n">
-        <v>1.260207390681902</v>
+        <v>1.380101937792975</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7706294651760932</v>
       </c>
       <c r="E39" t="n">
-        <v>3.838626924251984</v>
+        <v>3.980155357767311</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.542824620845512</v>
+        <v>-3.701528420618064</v>
       </c>
       <c r="G39" t="n">
-        <v>1.169568908672403</v>
+        <v>1.301621004633095</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6721506705565793</v>
       </c>
       <c r="E40" t="n">
-        <v>3.495527026119546</v>
+        <v>3.582072330467388</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.464631265284719</v>
+        <v>-3.62152908993342</v>
       </c>
       <c r="G40" t="n">
-        <v>1.085133319945432</v>
+        <v>1.196031537074471</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5842274913865763</v>
       </c>
       <c r="E41" t="n">
-        <v>3.271925226658293</v>
+        <v>3.324840724731602</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.371247835269516</v>
+        <v>-3.487041275750134</v>
       </c>
       <c r="G41" t="n">
-        <v>1.023101947437448</v>
+        <v>1.126868972013948</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5062058853065983</v>
       </c>
       <c r="E42" t="n">
-        <v>2.968548242361102</v>
+        <v>2.975689193644469</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.280442844915265</v>
+        <v>-3.370720863804805</v>
       </c>
       <c r="G42" t="n">
-        <v>1.005548430360639</v>
+        <v>1.066932677030594</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4371033964197281</v>
       </c>
       <c r="E43" t="n">
-        <v>2.628153952350718</v>
+        <v>2.615407830048038</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.184496223256028</v>
+        <v>-3.244804569852199</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9081672752696904</v>
+        <v>0.9827392268122916</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3754556330250833</v>
       </c>
       <c r="E44" t="n">
-        <v>2.401201248691413</v>
+        <v>2.333575683736295</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.151721525770294</v>
+        <v>-3.227003729940968</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8988342690740916</v>
+        <v>0.9613011249452742</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3196782332495696</v>
       </c>
       <c r="E45" t="n">
-        <v>2.134292641498341</v>
+        <v>2.04088450969573</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.059534150202194</v>
+        <v>-3.137830582357357</v>
       </c>
       <c r="G45" t="n">
-        <v>0.824512385008957</v>
+        <v>0.8409527968507009</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2683698276467819</v>
       </c>
       <c r="E46" t="n">
-        <v>1.986029463870363</v>
+        <v>1.927342286432988</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.971793096367587</v>
+        <v>-3.054044254190785</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7856031053564914</v>
+        <v>0.7901000505061548</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2204681314526285</v>
       </c>
       <c r="E47" t="n">
-        <v>1.759874536456244</v>
+        <v>1.639614036939122</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.89975048587146</v>
+        <v>-2.965683520948601</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7138148317825682</v>
+        <v>0.6720322158219425</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1749927182863292</v>
       </c>
       <c r="E48" t="n">
-        <v>1.634218678632609</v>
+        <v>1.471058798395736</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.830606828351916</v>
+        <v>-2.863869462379048</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6508783369902896</v>
+        <v>0.623339808514438</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1314155820494774</v>
       </c>
       <c r="E49" t="n">
-        <v>1.445398825604268</v>
+        <v>1.315394843276096</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.79157190504004</v>
+        <v>-2.795748641834411</v>
       </c>
       <c r="G49" t="n">
-        <v>0.573256782063948</v>
+        <v>0.560479553806753</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08921606167112156</v>
       </c>
       <c r="E50" t="n">
-        <v>1.350533593304906</v>
+        <v>1.185586645485161</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.708156713605269</v>
+        <v>-2.719506727478874</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5677144328743384</v>
+        <v>0.5463763579983076</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0484105532491363</v>
       </c>
       <c r="E51" t="n">
-        <v>1.257238296827492</v>
+        <v>1.086484294244429</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.637208300803228</v>
+        <v>-2.661031802437007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4756914309286217</v>
+        <v>0.4688109157742268</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.008770750580244784</v>
       </c>
       <c r="E52" t="n">
-        <v>1.209809035241533</v>
+        <v>1.044818783053739</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.555904654751358</v>
+        <v>-2.581027287426611</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4016299829924585</v>
+        <v>0.4150610462151275</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02990228703538584</v>
       </c>
       <c r="E53" t="n">
-        <v>1.176054805148942</v>
+        <v>1.006345596685148</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.509704993249723</v>
+        <v>-2.511099271916769</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3938205586473764</v>
+        <v>0.3737224525071744</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06762340837141574</v>
       </c>
       <c r="E54" t="n">
-        <v>1.10342789064449</v>
+        <v>0.98122784337531</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.454406535092361</v>
+        <v>-2.456194212595909</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3398291605002848</v>
+        <v>0.3422041916155417</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1044190140290124</v>
       </c>
       <c r="E55" t="n">
-        <v>1.097242685061588</v>
+        <v>1.01769805024146</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.431979751808334</v>
+        <v>-2.41258366436707</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3123918788567734</v>
+        <v>0.330174116187363</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1402417432908112</v>
       </c>
       <c r="E56" t="n">
-        <v>1.080721153769837</v>
+        <v>1.030422825320455</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.397237450219412</v>
+        <v>-2.376401949981021</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2645954450234119</v>
+        <v>0.2774476935238469</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1750692520473581</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9867738520889801</v>
+        <v>0.986038287752822</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.361572948567245</v>
+        <v>-2.327915085941581</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2314480860041851</v>
+        <v>0.2112603215245012</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2088813010667534</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9933841723835756</v>
+        <v>0.9692892560486435</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.390528322775183</v>
+        <v>-2.371539662345985</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2247700645144707</v>
+        <v>0.2032813392312831</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.24163806693404</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9791358154540641</v>
+        <v>0.9906980817231771</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.319423770279895</v>
+        <v>-2.28172030380536</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2164080520362548</v>
+        <v>0.1832082398388278</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2732047308835517</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9875454017450664</v>
+        <v>1.018736745153962</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.337396912782306</v>
+        <v>-2.288830149134212</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2007245517543552</v>
+        <v>0.2013649684649407</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3034272060511141</v>
       </c>
       <c r="E61" t="n">
-        <v>1.098855925251587</v>
+        <v>1.105382076492791</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.363646068947512</v>
+        <v>-2.289684038081659</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2189703287992734</v>
+        <v>0.210604656796997</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3319326333946791</v>
       </c>
       <c r="E62" t="n">
-        <v>1.130682806005654</v>
+        <v>1.150939491521811</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.35071270099707</v>
+        <v>-2.311713153084445</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1881376187483055</v>
+        <v>0.1992247568102317</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3585272909412122</v>
       </c>
       <c r="E63" t="n">
-        <v>1.203119425258961</v>
+        <v>1.225377870436204</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.361271037832255</v>
+        <v>-2.31119472050921</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1591950528745799</v>
+        <v>0.1803635698024748</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3825116378402827</v>
       </c>
       <c r="E64" t="n">
-        <v>1.300731740286396</v>
+        <v>1.303375746420099</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.426616109377012</v>
+        <v>-2.413378391008872</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1841530069671105</v>
+        <v>0.2196162347959496</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4028751159226142</v>
       </c>
       <c r="E65" t="n">
-        <v>1.349196037260797</v>
+        <v>1.39470221895297</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.555869889272784</v>
+        <v>-2.497180882073379</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1528976218871562</v>
+        <v>0.1954090930564959</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4186046459020388</v>
       </c>
       <c r="E66" t="n">
-        <v>1.402106655968691</v>
+        <v>1.452349481636489</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.642539007518006</v>
+        <v>-2.57962264010806</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1575128916481088</v>
+        <v>0.182730671948934</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4288428490818473</v>
       </c>
       <c r="E67" t="n">
-        <v>1.460455937351148</v>
+        <v>1.543678393852067</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.69080203066908</v>
+        <v>-2.606309109398495</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1165652570939512</v>
+        <v>0.1195843644438541</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4331464217414269</v>
       </c>
       <c r="E68" t="n">
-        <v>1.510941511448291</v>
+        <v>1.623557265203053</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.786454060641447</v>
+        <v>-2.642150488046918</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08134965705987182</v>
+        <v>0.1146165605317411</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4314843900509841</v>
       </c>
       <c r="E69" t="n">
-        <v>1.505905396420383</v>
+        <v>1.622755829433806</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.841869013648069</v>
+        <v>-2.697891138694922</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1142945224144182</v>
+        <v>0.1317498422622708</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4238182300638412</v>
       </c>
       <c r="E70" t="n">
-        <v>1.527909504675422</v>
+        <v>1.695574259030757</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.878977807462774</v>
+        <v>-2.66369837563575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1125867445195236</v>
+        <v>0.1093456260432844</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4106867925279814</v>
       </c>
       <c r="E71" t="n">
-        <v>1.521996933635027</v>
+        <v>1.723768452234112</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.952228060898863</v>
+        <v>-2.692987986374545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1087161879048804</v>
+        <v>0.09782239469748337</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3924302587196294</v>
       </c>
       <c r="E72" t="n">
-        <v>1.512992064763518</v>
+        <v>1.749984672682774</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.028170504202117</v>
+        <v>-2.716920663809462</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06550391787795727</v>
+        <v>0.0546302520528929</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3696856470745686</v>
       </c>
       <c r="E73" t="n">
-        <v>1.552480159138218</v>
+        <v>1.817451658261937</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.090601374753371</v>
+        <v>-2.760833122773292</v>
       </c>
       <c r="G73" t="n">
-        <v>0.008219557997102927</v>
+        <v>-0.001035988272548852</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3426408357580665</v>
       </c>
       <c r="E74" t="n">
-        <v>1.532261898624697</v>
+        <v>1.842766415950365</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.136169158433896</v>
+        <v>-2.743080161635186</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01480311778810602</v>
+        <v>-0.02805669409384132</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3117136832589459</v>
       </c>
       <c r="E75" t="n">
-        <v>1.504531245135669</v>
+        <v>1.828629674504699</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.144262500854004</v>
+        <v>-2.699766644775923</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0005937957819065105</v>
+        <v>-0.03114838200427722</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2771577072756693</v>
       </c>
       <c r="E76" t="n">
-        <v>1.512685884583791</v>
+        <v>1.899159681722491</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.216826288568412</v>
+        <v>-2.738386212106933</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01471711897268454</v>
+        <v>-0.04877874908635658</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2390144939347995</v>
       </c>
       <c r="E77" t="n">
-        <v>1.399962784789922</v>
+        <v>1.820117621540003</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.232539065042796</v>
+        <v>-2.780900732879656</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01821867357789514</v>
+        <v>-0.01426455783053748</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1976333000359954</v>
       </c>
       <c r="E78" t="n">
-        <v>1.435734022560519</v>
+        <v>1.893366655134738</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.232462824958202</v>
+        <v>-2.810150088853786</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01019875059315038</v>
+        <v>-0.03082085460086351</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1531874231473113</v>
       </c>
       <c r="E79" t="n">
-        <v>1.467957961675149</v>
+        <v>1.956522721370646</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.183641114467227</v>
+        <v>-2.780886704704091</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04683424596269922</v>
+        <v>0.03136482783833823</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1062012362444034</v>
       </c>
       <c r="E80" t="n">
-        <v>1.504414140365734</v>
+        <v>2.020896189277343</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.13323300029603</v>
+        <v>-2.729139814647433</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03583920592296198</v>
+        <v>0.00815917585010487</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05739481882053158</v>
       </c>
       <c r="E81" t="n">
-        <v>1.635195771556759</v>
+        <v>2.124618079723764</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.018409333691441</v>
+        <v>-2.574755473107611</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01393573457958573</v>
+        <v>-0.0117632731351937</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.007542515254746575</v>
       </c>
       <c r="E82" t="n">
-        <v>1.712482480031566</v>
+        <v>2.187100793532542</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.900122537484276</v>
+        <v>-2.49031988438064</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03447420344839983</v>
+        <v>0.03307504541593979</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.04230366528528611</v>
       </c>
       <c r="E83" t="n">
-        <v>1.887892617060924</v>
+        <v>2.342190203374685</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.764269415866091</v>
+        <v>-2.351923393540415</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07756753894335712</v>
+        <v>0.04710322098114512</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.09097055006974154</v>
       </c>
       <c r="E84" t="n">
-        <v>2.085927151673574</v>
+        <v>2.542690647283427</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.674292697790863</v>
+        <v>-2.227964335039493</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03992079509175998</v>
+        <v>0.01798255826980909</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1367332926670043</v>
       </c>
       <c r="E85" t="n">
-        <v>2.228558321772461</v>
+        <v>2.640919592115055</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.461046741500116</v>
+        <v>-1.997593025987014</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08871566907295812</v>
+        <v>0.05942056904807215</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.178285834833579</v>
       </c>
       <c r="E86" t="n">
-        <v>2.384434529287609</v>
+        <v>2.795530824146628</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.275069728746099</v>
+        <v>-1.780156304726331</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08625951850769369</v>
+        <v>0.06094110129520505</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2140363665788651</v>
       </c>
       <c r="E87" t="n">
-        <v>2.498815393480879</v>
+        <v>2.947806059986255</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.016215124089486</v>
+        <v>-1.502920520634562</v>
       </c>
       <c r="G87" t="n">
-        <v>0.09866774475545619</v>
+        <v>0.0773223508313044</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2423403702742368</v>
       </c>
       <c r="E88" t="n">
-        <v>2.596135556504152</v>
+        <v>3.069590141353893</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.719819291858353</v>
+        <v>-1.234557862548124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1046626550872128</v>
+        <v>0.04368583542932575</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2616729820954726</v>
       </c>
       <c r="E89" t="n">
-        <v>2.630039827083224</v>
+        <v>3.128563371588663</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.517627537912988</v>
+        <v>-1.030286889015725</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05736696612946143</v>
+        <v>0.004077586681306865</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2705311230080404</v>
       </c>
       <c r="E90" t="n">
-        <v>2.691655233689666</v>
+        <v>3.214159639363485</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.291936150213197</v>
+        <v>-0.8318992103312373</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04785525317557547</v>
+        <v>-0.01152784375396895</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2680255893290416</v>
       </c>
       <c r="E91" t="n">
-        <v>2.691702807502452</v>
+        <v>3.182991472940306</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9365024361555595</v>
+        <v>-0.5104521061440316</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04806750557108379</v>
+        <v>-0.02292238183697616</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2537321541440781</v>
       </c>
       <c r="E92" t="n">
-        <v>2.62901272066358</v>
+        <v>3.160774502369081</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7278424734332813</v>
+        <v>-0.3303144739491997</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03783669613931187</v>
+        <v>-0.0159375702468574</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2282689480087532</v>
       </c>
       <c r="E93" t="n">
-        <v>2.551580851067707</v>
+        <v>3.108698255146978</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4036665841383048</v>
+        <v>-0.02595246775906052</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0477534724287431</v>
+        <v>-0.1221528164198247</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1938444235455021</v>
       </c>
       <c r="E94" t="n">
-        <v>2.498061531524418</v>
+        <v>2.996543601423839</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1448607731358316</v>
+        <v>0.1591194227106632</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09523396735154917</v>
+        <v>-0.1432908373138821</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1532722370146527</v>
       </c>
       <c r="E95" t="n">
-        <v>2.348744410967019</v>
+        <v>2.816068073174088</v>
       </c>
       <c r="F95" t="n">
-        <v>0.069988054693409</v>
+        <v>0.3698317685101985</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1427461781495461</v>
+        <v>-0.1611974984625284</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.110502288147194</v>
       </c>
       <c r="E96" t="n">
-        <v>2.186250564109155</v>
+        <v>2.596999204182428</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2348898683830744</v>
+        <v>0.470730336143953</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1952560789728167</v>
+        <v>-0.1846489484834912</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06989351143736273</v>
       </c>
       <c r="E97" t="n">
-        <v>2.016124779823143</v>
+        <v>2.407932333280004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3622705818805528</v>
+        <v>0.5720466994412798</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2137635119880598</v>
+        <v>-0.201191217078252</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03476781485148271</v>
       </c>
       <c r="E98" t="n">
-        <v>1.798453849022589</v>
+        <v>2.133410696199764</v>
       </c>
       <c r="F98" t="n">
-        <v>0.453602543699514</v>
+        <v>0.6110889418012766</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3490048831674671</v>
+        <v>-0.323595587774143</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.006276986263561159</v>
       </c>
       <c r="E99" t="n">
-        <v>1.634327854433747</v>
+        <v>1.867760965283501</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5075286803341935</v>
+        <v>0.6658848253209988</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3339245944348714</v>
+        <v>-0.3389466812872149</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01774920869392348</v>
       </c>
       <c r="E100" t="n">
-        <v>1.44935599095501</v>
+        <v>1.657733560403953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5255280494257055</v>
+        <v>0.6480342768746135</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4348347505614841</v>
+        <v>-0.4238964331446844</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03875191746520439</v>
       </c>
       <c r="E101" t="n">
-        <v>1.305092063204468</v>
+        <v>1.404646975587347</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5240300842436123</v>
+        <v>0.6425815860244858</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4377135761557349</v>
+        <v>-0.464391506556695</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06258359379420941</v>
       </c>
       <c r="E102" t="n">
-        <v>1.084285530204753</v>
+        <v>1.128090033208798</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4783708124615759</v>
+        <v>0.5837919419134172</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.47309690437592</v>
+        <v>-0.4960122341220213</v>
       </c>
     </row>
   </sheetData>
